--- a/Team-Data/2013-14/1-28-2013-14.xlsx
+++ b/Team-Data/2013-14/1-28-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -783,7 +850,7 @@
         <v>24</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="n">
         <v>27</v>
@@ -798,22 +865,22 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
         <v>22</v>
       </c>
       <c r="AY2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="n">
-        <v>0.319</v>
+        <v>0.326</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J3" t="n">
         <v>82.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L3" t="n">
         <v>6.3</v>
@@ -878,13 +945,13 @@
         <v>19.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.325</v>
+        <v>0.326</v>
       </c>
       <c r="O3" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P3" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Q3" t="n">
         <v>0.767</v>
@@ -908,7 +975,7 @@
         <v>7.1</v>
       </c>
       <c r="X3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.5</v>
@@ -920,25 +987,25 @@
         <v>18.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>-4.4</v>
+        <v>-3.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
         <v>27</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
         <v>24</v>
@@ -953,7 +1020,7 @@
         <v>25</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN3" t="n">
         <v>28</v>
@@ -962,19 +1029,19 @@
         <v>25</v>
       </c>
       <c r="AP3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>14</v>
       </c>
       <c r="AS3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU3" t="n">
         <v>29</v>
@@ -986,7 +1053,7 @@
         <v>24</v>
       </c>
       <c r="AX3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1168,7 +1235,7 @@
         <v>17</v>
       </c>
       <c r="AX4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY4" t="n">
         <v>8</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1323,7 +1390,7 @@
         <v>20</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
         <v>9</v>
@@ -1341,7 +1408,7 @@
         <v>23</v>
       </c>
       <c r="AU5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV5" t="n">
         <v>2</v>
@@ -1365,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="BC5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>-0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>15</v>
@@ -1514,13 +1581,13 @@
         <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>9</v>
       </c>
       <c r="AT6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU6" t="n">
         <v>13</v>
@@ -1529,7 +1596,7 @@
         <v>26</v>
       </c>
       <c r="AW6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX6" t="n">
         <v>8</v>
@@ -1547,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="BC6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -1576,34 +1643,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>0.356</v>
+        <v>0.364</v>
       </c>
       <c r="H7" t="n">
         <v>48.9</v>
       </c>
       <c r="I7" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J7" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.424</v>
+        <v>0.425</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M7" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N7" t="n">
         <v>0.361</v>
@@ -1612,49 +1679,49 @@
         <v>16.4</v>
       </c>
       <c r="P7" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.74</v>
+        <v>0.743</v>
       </c>
       <c r="R7" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>32.1</v>
       </c>
       <c r="T7" t="n">
-        <v>44.4</v>
+        <v>44.6</v>
       </c>
       <c r="U7" t="n">
         <v>19.8</v>
       </c>
       <c r="V7" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W7" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X7" t="n">
         <v>4.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="n">
         <v>19.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.2</v>
+        <v>-5.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
@@ -1666,13 +1733,13 @@
         <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK7" t="n">
         <v>29</v>
@@ -1681,13 +1748,13 @@
         <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
@@ -1699,10 +1766,10 @@
         <v>5</v>
       </c>
       <c r="AS7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU7" t="n">
         <v>28</v>
@@ -1711,13 +1778,13 @@
         <v>12</v>
       </c>
       <c r="AW7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY7" t="n">
         <v>26</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>27</v>
       </c>
       <c r="AZ7" t="n">
         <v>8</v>
@@ -1726,7 +1793,7 @@
         <v>21</v>
       </c>
       <c r="BB7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC7" t="n">
         <v>25</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1869,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP8" t="n">
         <v>27</v>
@@ -1881,7 +1948,7 @@
         <v>24</v>
       </c>
       <c r="AS8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT8" t="n">
         <v>29</v>
@@ -1896,19 +1963,19 @@
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY8" t="n">
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>0.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>12</v>
@@ -2033,22 +2100,22 @@
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
       </c>
       <c r="AL9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
         <v>6</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
         <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4</v>
+        <v>0.386</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2149,7 +2216,7 @@
         <v>5.9</v>
       </c>
       <c r="M10" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N10" t="n">
         <v>0.307</v>
@@ -2158,19 +2225,19 @@
         <v>17.1</v>
       </c>
       <c r="P10" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.665</v>
+        <v>0.664</v>
       </c>
       <c r="R10" t="n">
         <v>14.4</v>
       </c>
       <c r="S10" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="T10" t="n">
-        <v>44.7</v>
+        <v>44.5</v>
       </c>
       <c r="U10" t="n">
         <v>20.3</v>
@@ -2185,7 +2252,7 @@
         <v>5.1</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z10" t="n">
         <v>20.5</v>
@@ -2197,10 +2264,10 @@
         <v>99.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.1</v>
+        <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2215,13 +2282,13 @@
         <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
         <v>28</v>
@@ -2245,19 +2312,19 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AT10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
         <v>9</v>
@@ -2275,7 +2342,7 @@
         <v>17</v>
       </c>
       <c r="BC10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -2304,64 +2371,64 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" t="n">
         <v>27</v>
       </c>
       <c r="F11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" t="n">
-        <v>0.587</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="J11" t="n">
-        <v>84.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="K11" t="n">
-        <v>0.461</v>
+        <v>0.463</v>
       </c>
       <c r="L11" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M11" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.385</v>
+        <v>0.386</v>
       </c>
       <c r="O11" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P11" t="n">
         <v>21.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.735</v>
+        <v>0.734</v>
       </c>
       <c r="R11" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S11" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="T11" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="U11" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V11" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="W11" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
         <v>5.1</v>
@@ -2370,37 +2437,37 @@
         <v>4.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="AA11" t="n">
         <v>20</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.6</v>
+        <v>104</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
       </c>
       <c r="AI11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>6</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>7</v>
       </c>
       <c r="AK11" t="n">
         <v>7</v>
@@ -2412,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
         <v>24</v>
@@ -2424,10 +2491,10 @@
         <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
         <v>3</v>
@@ -2442,7 +2509,7 @@
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
         <v>14</v>
@@ -2454,7 +2521,7 @@
         <v>19</v>
       </c>
       <c r="BB11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -2486,55 +2553,55 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="n">
         <v>17</v>
       </c>
       <c r="G12" t="n">
-        <v>0.638</v>
+        <v>0.63</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J12" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="L12" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="M12" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O12" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="P12" t="n">
-        <v>31.4</v>
+        <v>31.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="S12" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="T12" t="n">
-        <v>45.1</v>
+        <v>44.9</v>
       </c>
       <c r="U12" t="n">
         <v>20.2</v>
@@ -2543,10 +2610,10 @@
         <v>16.1</v>
       </c>
       <c r="W12" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y12" t="n">
         <v>5.6</v>
@@ -2555,16 +2622,16 @@
         <v>20.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.8</v>
+        <v>105</v>
       </c>
       <c r="AC12" t="n">
         <v>3.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2606,16 +2673,16 @@
         <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV12" t="n">
         <v>28</v>
@@ -2627,10 +2694,10 @@
         <v>3</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -2668,67 +2735,67 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" t="n">
         <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>0.795</v>
+        <v>0.791</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J13" t="n">
-        <v>80.8</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L13" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M13" t="n">
         <v>19.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="O13" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P13" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.777</v>
+        <v>0.783</v>
       </c>
       <c r="R13" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="S13" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="T13" t="n">
-        <v>45.4</v>
+        <v>45</v>
       </c>
       <c r="U13" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V13" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="W13" t="n">
         <v>7.2</v>
       </c>
       <c r="X13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y13" t="n">
         <v>4.4</v>
@@ -2737,16 +2804,16 @@
         <v>20.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2767,25 +2834,25 @@
         <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
         <v>22</v>
       </c>
       <c r="AN13" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR13" t="n">
         <v>22</v>
@@ -2794,16 +2861,16 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU13" t="n">
         <v>19</v>
       </c>
       <c r="AV13" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AW13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX13" t="n">
         <v>5</v>
@@ -2812,13 +2879,13 @@
         <v>10</v>
       </c>
       <c r="AZ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
       </c>
       <c r="BB13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC13" t="n">
         <v>1</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -2940,13 +3007,13 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
         <v>10</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
         <v>6</v>
@@ -2976,13 +3043,13 @@
         <v>12</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" t="n">
-        <v>0.348</v>
+        <v>0.356</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,25 +3117,25 @@
         <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>84</v>
+        <v>83.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.441</v>
+        <v>0.443</v>
       </c>
       <c r="L15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M15" t="n">
         <v>24.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.37</v>
+        <v>0.373</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P15" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="Q15" t="n">
         <v>0.755</v>
@@ -3077,16 +3144,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="S15" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="T15" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U15" t="n">
         <v>22.5</v>
       </c>
       <c r="V15" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W15" t="n">
         <v>6.5</v>
@@ -3095,31 +3162,31 @@
         <v>5.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z15" t="n">
         <v>20.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.6</v>
+        <v>100.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.5</v>
+        <v>-5.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
         <v>27</v>
@@ -3128,7 +3195,7 @@
         <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
         <v>20</v>
@@ -3146,7 +3213,7 @@
         <v>16</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>17</v>
@@ -3155,25 +3222,25 @@
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU15" t="n">
         <v>11</v>
       </c>
       <c r="AV15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
         <v>12</v>
@@ -3182,7 +3249,7 @@
         <v>25</v>
       </c>
       <c r="BB15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -3214,58 +3281,58 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" t="n">
         <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>0.535</v>
+        <v>0.524</v>
       </c>
       <c r="H16" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J16" t="n">
         <v>82.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L16" t="n">
         <v>5.1</v>
       </c>
       <c r="M16" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O16" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="P16" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.748</v>
+        <v>0.75</v>
       </c>
       <c r="R16" t="n">
         <v>12.1</v>
       </c>
       <c r="S16" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="T16" t="n">
         <v>43.3</v>
       </c>
       <c r="U16" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V16" t="n">
         <v>13.5</v>
@@ -3277,25 +3344,25 @@
         <v>4.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z16" t="n">
         <v>19.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
         <v>10</v>
@@ -3307,13 +3374,13 @@
         <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3328,16 +3395,16 @@
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ16" t="n">
         <v>20</v>
       </c>
       <c r="AR16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT16" t="n">
         <v>15</v>
@@ -3352,22 +3419,22 @@
         <v>18</v>
       </c>
       <c r="AX16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
         <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BB16" t="n">
         <v>25</v>
       </c>
       <c r="BC16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -3474,22 +3541,22 @@
         <v>5.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
       </c>
       <c r="AF17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH17" t="n">
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3513,13 +3580,13 @@
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3534,7 +3601,7 @@
         <v>4</v>
       </c>
       <c r="AX17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI18" t="n">
         <v>29</v>
@@ -3716,7 +3783,7 @@
         <v>25</v>
       </c>
       <c r="AX18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -3838,10 +3905,10 @@
         <v>4.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
         <v>15</v>
@@ -3850,7 +3917,7 @@
         <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>8</v>
@@ -3904,7 +3971,7 @@
         <v>24</v>
       </c>
       <c r="AZ19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" t="n">
         <v>25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.432</v>
+        <v>0.419</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
@@ -3960,19 +4027,19 @@
         <v>38.4</v>
       </c>
       <c r="J20" t="n">
-        <v>84.09999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
         <v>6.1</v>
       </c>
       <c r="M20" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.386</v>
+        <v>0.387</v>
       </c>
       <c r="O20" t="n">
         <v>17.8</v>
@@ -3981,49 +4048,49 @@
         <v>23.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R20" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="S20" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T20" t="n">
         <v>42.8</v>
       </c>
       <c r="U20" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V20" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W20" t="n">
         <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB20" t="n">
         <v>100.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1.6</v>
+        <v>-1.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="n">
         <v>19</v>
@@ -4041,7 +4108,7 @@
         <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>26</v>
@@ -4050,7 +4117,7 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO20" t="n">
         <v>14</v>
@@ -4074,10 +4141,10 @@
         <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX20" t="n">
         <v>1</v>
@@ -4086,13 +4153,13 @@
         <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA20" t="n">
         <v>18</v>
       </c>
       <c r="BB20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -4124,64 +4191,64 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" t="n">
         <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4</v>
+        <v>0.386</v>
       </c>
       <c r="H21" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="J21" t="n">
         <v>83.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
       <c r="L21" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.364</v>
+        <v>0.361</v>
       </c>
       <c r="O21" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="P21" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="R21" t="n">
         <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T21" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V21" t="n">
         <v>12.7</v>
       </c>
       <c r="W21" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X21" t="n">
         <v>4.6</v>
@@ -4190,19 +4257,19 @@
         <v>3.8</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>96.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.5</v>
+        <v>-3.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -4214,16 +4281,16 @@
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
         <v>14</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL21" t="n">
         <v>7</v>
@@ -4232,7 +4299,7 @@
         <v>8</v>
       </c>
       <c r="AN21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>28</v>
@@ -4247,13 +4314,13 @@
         <v>20</v>
       </c>
       <c r="AS21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT21" t="n">
         <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4262,22 +4329,22 @@
         <v>12</v>
       </c>
       <c r="AX21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY21" t="n">
         <v>5</v>
       </c>
       <c r="AZ21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>7.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4399,7 +4466,7 @@
         <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ22" t="n">
         <v>17</v>
@@ -4408,7 +4475,7 @@
         <v>4</v>
       </c>
       <c r="AL22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM22" t="n">
         <v>20</v>
@@ -4429,7 +4496,7 @@
         <v>15</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>2</v>
@@ -4447,7 +4514,7 @@
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ22" t="n">
         <v>23</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4555,25 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" t="n">
         <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" t="n">
-        <v>0.261</v>
+        <v>0.267</v>
       </c>
       <c r="H23" t="n">
         <v>48.8</v>
       </c>
       <c r="I23" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J23" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K23" t="n">
         <v>0.443</v>
@@ -4518,16 +4585,16 @@
         <v>20.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O23" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P23" t="n">
         <v>21.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.756</v>
+        <v>0.76</v>
       </c>
       <c r="R23" t="n">
         <v>9.1</v>
@@ -4536,16 +4603,16 @@
         <v>33.2</v>
       </c>
       <c r="T23" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U23" t="n">
         <v>20.5</v>
       </c>
       <c r="V23" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
         <v>4.1</v>
@@ -4557,16 +4624,16 @@
         <v>20.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.9</v>
+        <v>-5.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,25 +4645,25 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
         <v>19</v>
       </c>
       <c r="AL23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM23" t="n">
         <v>17</v>
       </c>
       <c r="AN23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO23" t="n">
         <v>20</v>
@@ -4605,10 +4672,10 @@
         <v>22</v>
       </c>
       <c r="AQ23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS23" t="n">
         <v>8</v>
@@ -4623,22 +4690,22 @@
         <v>19</v>
       </c>
       <c r="AW23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY23" t="n">
         <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC23" t="n">
         <v>27</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI24" t="n">
         <v>7</v>
@@ -4793,7 +4860,7 @@
         <v>11</v>
       </c>
       <c r="AS24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT24" t="n">
         <v>9</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>3.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -4939,10 +5006,10 @@
         <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
@@ -4951,7 +5018,7 @@
         <v>8</v>
       </c>
       <c r="AK25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>3</v>
@@ -5002,7 +5069,7 @@
         <v>11</v>
       </c>
       <c r="BB25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -5034,37 +5101,37 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" t="n">
         <v>33</v>
       </c>
       <c r="F26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.717</v>
+        <v>0.733</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="J26" t="n">
         <v>88.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.453</v>
+        <v>0.455</v>
       </c>
       <c r="L26" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M26" t="n">
         <v>25.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.383</v>
+        <v>0.388</v>
       </c>
       <c r="O26" t="n">
         <v>18.7</v>
@@ -5073,19 +5140,19 @@
         <v>22.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.821</v>
+        <v>0.822</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="T26" t="n">
-        <v>46.6</v>
+        <v>46.7</v>
       </c>
       <c r="U26" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="V26" t="n">
         <v>13.6</v>
@@ -5097,31 +5164,31 @@
         <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA26" t="n">
         <v>20.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>108.4</v>
+        <v>109</v>
       </c>
       <c r="AC26" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH26" t="n">
         <v>17</v>
@@ -5133,7 +5200,7 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>1</v>
@@ -5142,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO26" t="n">
         <v>9</v>
@@ -5178,7 +5245,7 @@
         <v>4</v>
       </c>
       <c r="AZ26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA26" t="n">
         <v>17</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -5294,28 +5361,28 @@
         <v>-2.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>26</v>
       </c>
       <c r="AH27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL27" t="n">
         <v>22</v>
@@ -5333,13 +5400,13 @@
         <v>5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR27" t="n">
         <v>8</v>
       </c>
       <c r="AS27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT27" t="n">
         <v>12</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -5398,55 +5465,55 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" t="n">
         <v>33</v>
       </c>
       <c r="F28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.733</v>
+        <v>0.75</v>
       </c>
       <c r="H28" t="n">
         <v>48.1</v>
       </c>
       <c r="I28" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="J28" t="n">
         <v>82.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.493</v>
+        <v>0.494</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
         <v>20.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.402</v>
+        <v>0.406</v>
       </c>
       <c r="O28" t="n">
         <v>14.8</v>
       </c>
       <c r="P28" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.766</v>
+        <v>0.768</v>
       </c>
       <c r="R28" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="S28" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U28" t="n">
         <v>25.2</v>
@@ -5461,22 +5528,22 @@
         <v>4.8</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.8</v>
+        <v>17.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.4</v>
+        <v>104.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>18</v>
@@ -5509,16 +5576,16 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP28" t="n">
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS28" t="n">
         <v>5</v>
@@ -5536,19 +5603,19 @@
         <v>14</v>
       </c>
       <c r="AX28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5676,13 +5743,13 @@
         <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
@@ -5721,7 +5788,7 @@
         <v>22</v>
       </c>
       <c r="AY29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ29" t="n">
         <v>26</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-6.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH30" t="n">
         <v>24</v>
@@ -5882,7 +5949,7 @@
         <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
@@ -5891,7 +5958,7 @@
         <v>24</v>
       </c>
       <c r="AU30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV30" t="n">
         <v>13</v>
@@ -5900,7 +5967,7 @@
         <v>27</v>
       </c>
       <c r="AX30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
@@ -5909,7 +5976,7 @@
         <v>18</v>
       </c>
       <c r="BA30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
@@ -5944,61 +6011,61 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" t="n">
         <v>22</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.488</v>
       </c>
       <c r="H31" t="n">
         <v>48.8</v>
       </c>
       <c r="I31" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J31" t="n">
-        <v>84</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="L31" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M31" t="n">
         <v>20.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.382</v>
+        <v>0.38</v>
       </c>
       <c r="O31" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="P31" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.732</v>
+        <v>0.733</v>
       </c>
       <c r="R31" t="n">
         <v>11.1</v>
       </c>
       <c r="S31" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="T31" t="n">
-        <v>43.1</v>
+        <v>42.8</v>
       </c>
       <c r="U31" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V31" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W31" t="n">
         <v>8.5</v>
@@ -6007,46 +6074,46 @@
         <v>4.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
         <v>19.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="AD31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE31" t="n">
         <v>17</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>14</v>
       </c>
       <c r="AF31" t="n">
         <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
         <v>3</v>
       </c>
       <c r="AI31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM31" t="n">
         <v>19</v>
@@ -6064,28 +6131,28 @@
         <v>24</v>
       </c>
       <c r="AR31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS31" t="n">
         <v>17</v>
       </c>
-      <c r="AS31" t="n">
-        <v>15</v>
-      </c>
       <c r="AT31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU31" t="n">
         <v>9</v>
       </c>
       <c r="AV31" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ31" t="n">
         <v>16</v>
@@ -6094,7 +6161,7 @@
         <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-28-2013-14</t>
+          <t>2014-01-28</t>
         </is>
       </c>
     </row>
